--- a/tut04/output_individual_roll/2000MM03.xlsx
+++ b/tut04/output_individual_roll/2000MM03.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,66 +424,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>rollno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>register_sem</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subno</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sub_type</t>
+          <t>rollnoregister_semsubnosub_type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2000MM03</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HS002</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2000MM032HS002CORE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2000MM03</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA002</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2000MM032MA002CORE</t>
         </is>
       </c>
     </row>
